--- a/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\test\ESTERE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\Document\test\ESTERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="casistiche Indeterm" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="OUTPUT" sheetId="8" r:id="rId4"/>
     <sheet name="Query" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>SNDG</t>
   </si>
@@ -384,11 +384,20 @@
   <si>
     <t>BR12 = 1 or BR5 = 1 or BR6 = 1</t>
   </si>
+  <si>
+    <t>EST000049</t>
+  </si>
+  <si>
+    <t>EST000050</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,9 +609,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -625,6 +631,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,19 +963,19 @@
       <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -974,13 +983,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1000,7 +1009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1009,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1018,7 +1027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1027,7 +1036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -1036,7 +1045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1045,7 +1054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1054,13 +1063,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1068,19 +1077,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -1100,34 +1109,34 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="112.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="6.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="112.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>24</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>31</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1140,31 +1149,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="19.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="9.109375" style="7"/>
+    <col min="9" max="9" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1187,53 +1198,73 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>80406868</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -1275,7 +1306,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>0</v>
@@ -1291,7 +1322,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>1</v>
@@ -1307,7 +1338,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -1325,7 +1356,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -1343,7 +1374,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -1361,7 +1392,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -1379,7 +1410,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -1407,279 +1438,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="2.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E1" s="22" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1694,16 +1725,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
     <col min="2" max="2" width="68" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="89.44140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="46.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="89.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
@@ -1717,7 +1748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>

--- a/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="casistiche Indeterm" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>SNDG</t>
   </si>
@@ -349,18 +349,9 @@
     <t xml:space="preserve">"Light Green" color: number of cases that registrer the conditions </t>
   </si>
   <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
     <t>ANALYSIS UNIT</t>
   </si>
   <si>
-    <t>numero casi nella analysis unit</t>
-  </si>
-  <si>
-    <t>numero casi in output</t>
-  </si>
-  <si>
     <t>Exception 1</t>
   </si>
   <si>
@@ -392,6 +383,72 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>EST000008</t>
+  </si>
+  <si>
+    <t>EST000016</t>
+  </si>
+  <si>
+    <t>EST000035</t>
+  </si>
+  <si>
+    <t>EST000005</t>
+  </si>
+  <si>
+    <t>EST000022</t>
+  </si>
+  <si>
+    <t>EST000013</t>
+  </si>
+  <si>
+    <t>ind_02 = 1</t>
+  </si>
+  <si>
+    <t>ind_55 = 1</t>
+  </si>
+  <si>
+    <t>ind_220 = 1</t>
+  </si>
+  <si>
+    <t>ind_51 = 1</t>
+  </si>
+  <si>
+    <t>ind_221 = 1</t>
+  </si>
+  <si>
+    <t>ind_225 = 1</t>
+  </si>
+  <si>
+    <t>ind_17=1</t>
+  </si>
+  <si>
+    <t>ind_35 &lt; -0.75</t>
+  </si>
+  <si>
+    <t>ind_9 &lt; -0.40</t>
+  </si>
+  <si>
+    <t>15 OR 16</t>
+  </si>
+  <si>
+    <t>12 OR 5 OR 6</t>
+  </si>
+  <si>
+    <t>17 AND 12(f) AND 5(f) AND 6(f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_01 &gt;= 15 </t>
+  </si>
+  <si>
+    <t>logica accensione BR/eccezioni</t>
+  </si>
+  <si>
+    <t>OUTPUT(usando il detectional_relationale)</t>
+  </si>
+  <si>
+    <t>OUTPUT (usando le singole BR)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +572,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,6 +695,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U17"/>
+  <dimension ref="A2:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,14 +1293,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1219,14 +1312,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1238,7 +1331,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1291,142 +1384,148 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>180</v>
-      </c>
-      <c r="F10" s="1">
-        <v>120</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="23">
+        <v>42735</v>
+      </c>
+      <c r="F10" s="23">
+        <v>42674</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>180</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="23">
+        <v>42735</v>
+      </c>
+      <c r="F11" s="23">
+        <v>42369</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>180</v>
-      </c>
-      <c r="F12" s="1">
-        <v>90</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="23">
+        <v>42735</v>
+      </c>
+      <c r="F12" s="23">
+        <v>42645</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="23">
+        <v>42735</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>180</v>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="23">
+        <v>42735</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>-10</v>
-      </c>
-      <c r="F16" s="1">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-50</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,32 +1535,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="65.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="13"/>
+    <col min="5" max="5" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
@@ -1471,14 +1578,20 @@
       <c r="D2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="21">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2</v>
+      </c>
+      <c r="G2" s="32">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
@@ -1488,10 +1601,20 @@
       <c r="D3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>59</v>
       </c>
@@ -1501,23 +1624,43 @@
       <c r="D4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="24">
+        <v>10639</v>
+      </c>
+      <c r="F4" s="35">
+        <v>10638</v>
+      </c>
+      <c r="G4" s="33">
+        <v>10639</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="24">
+        <v>11540</v>
+      </c>
+      <c r="F5" s="35">
+        <v>11538</v>
+      </c>
+      <c r="G5" s="33">
+        <v>11540</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
@@ -1527,10 +1670,20 @@
       <c r="D6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="34">
+        <v>2</v>
+      </c>
+      <c r="G6" s="32">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>43</v>
       </c>
@@ -1540,10 +1693,20 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="24">
+        <v>2610</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2608</v>
+      </c>
+      <c r="G7" s="33">
+        <v>2610</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>45</v>
       </c>
@@ -1553,10 +1716,20 @@
       <c r="D8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
@@ -1566,23 +1739,43 @@
       <c r="D9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="24">
+        <v>496</v>
+      </c>
+      <c r="F10" s="34">
+        <v>15</v>
+      </c>
+      <c r="G10" s="35">
+        <v>398</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>64</v>
       </c>
@@ -1592,12 +1785,22 @@
       <c r="D11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>47</v>
@@ -1605,36 +1808,60 @@
       <c r="D12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="29">
+        <v>12262</v>
+      </c>
+      <c r="F13" s="35">
+        <v>12260</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="25">
+        <v>15</v>
+      </c>
+      <c r="F14" s="32">
+        <v>15</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>49</v>
       </c>
@@ -1645,9 +1872,12 @@
         <v>51</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="32">
+        <v>2</v>
+      </c>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
@@ -1658,9 +1888,12 @@
         <v>51</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1671,9 +1904,12 @@
         <v>51</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>49</v>
       </c>
@@ -1684,9 +1920,12 @@
         <v>51</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="32">
+        <v>163</v>
+      </c>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
@@ -1697,9 +1936,12 @@
         <v>51</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="33">
+        <v>12110</v>
+      </c>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>49</v>
       </c>
@@ -1710,10 +1952,14 @@
         <v>51</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="33">
+        <v>2175</v>
+      </c>
+      <c r="G20" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>SNDG</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>logica accensione BR/eccezioni</t>
-  </si>
-  <si>
-    <t>OUTPUT(usando il detectional_relationale)</t>
   </si>
   <si>
     <t>OUTPUT (usando le singole BR)</t>
@@ -638,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,9 +691,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,7 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,13 +711,13 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1056,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1157,10 +1150,10 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -1394,10 +1387,10 @@
       <c r="D10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>42735</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>42674</v>
       </c>
       <c r="G10" s="1">
@@ -1416,10 +1409,10 @@
       <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>42735</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>42369</v>
       </c>
       <c r="G11" s="1">
@@ -1438,10 +1431,10 @@
       <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>42735</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>42645</v>
       </c>
       <c r="G12" s="1">
@@ -1491,7 +1484,7 @@
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>42735</v>
       </c>
       <c r="G14" s="1">
@@ -1514,7 +1507,7 @@
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>42735</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1535,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,27 +1541,23 @@
     <col min="3" max="3" width="44.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="65.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="13"/>
+    <col min="6" max="6" width="29" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
@@ -1581,17 +1570,14 @@
       <c r="E2" s="21">
         <v>3</v>
       </c>
-      <c r="F2" s="34">
-        <v>2</v>
-      </c>
-      <c r="G2" s="32">
+      <c r="F2" s="30">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
@@ -1604,17 +1590,14 @@
       <c r="E3" s="21">
         <v>0</v>
       </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>59</v>
       </c>
@@ -1624,20 +1607,17 @@
       <c r="D4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>10639</v>
       </c>
-      <c r="F4" s="35">
-        <v>10638</v>
-      </c>
-      <c r="G4" s="33">
+      <c r="F4" s="31">
         <v>10639</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>60</v>
       </c>
@@ -1647,20 +1627,17 @@
       <c r="D5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>11540</v>
       </c>
-      <c r="F5" s="35">
-        <v>11538</v>
-      </c>
-      <c r="G5" s="33">
+      <c r="F5" s="31">
         <v>11540</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
@@ -1673,17 +1650,14 @@
       <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="34">
-        <v>2</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="F6" s="30">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>43</v>
       </c>
@@ -1693,20 +1667,17 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>2610</v>
       </c>
-      <c r="F7" s="35">
-        <v>2608</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="F7" s="31">
         <v>2610</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>45</v>
       </c>
@@ -1719,17 +1690,14 @@
       <c r="E8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="32">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
@@ -1742,17 +1710,14 @@
       <c r="E9" s="21">
         <v>0</v>
       </c>
-      <c r="F9" s="32">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>73</v>
       </c>
@@ -1762,20 +1727,17 @@
       <c r="D10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>496</v>
       </c>
-      <c r="F10" s="34">
-        <v>15</v>
-      </c>
-      <c r="G10" s="35">
+      <c r="F10" s="32">
         <v>398</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>64</v>
       </c>
@@ -1788,17 +1750,14 @@
       <c r="E11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="32">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="36" t="s">
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>71</v>
       </c>
@@ -1808,18 +1767,15 @@
       <c r="D12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="25">
-        <v>0</v>
-      </c>
-      <c r="F12" s="32">
-        <v>0</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="26" t="s">
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>72</v>
       </c>
@@ -1829,18 +1785,15 @@
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>12262</v>
       </c>
-      <c r="F13" s="35">
-        <v>12260</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="26" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>76</v>
       </c>
@@ -1850,18 +1803,15 @@
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>15</v>
       </c>
-      <c r="F14" s="32">
-        <v>15</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="27" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>49</v>
       </c>
@@ -1872,12 +1822,11 @@
         <v>51</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="32">
+      <c r="F15" s="30">
         <v>2</v>
       </c>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
@@ -1888,12 +1837,11 @@
         <v>51</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="32">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1904,12 +1852,11 @@
         <v>51</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="32">
+      <c r="F17" s="30">
         <v>2</v>
       </c>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>49</v>
       </c>
@@ -1920,12 +1867,11 @@
         <v>51</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <v>163</v>
       </c>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
@@ -1936,12 +1882,11 @@
         <v>51</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="33">
+      <c r="F19" s="31">
         <v>12110</v>
       </c>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>49</v>
       </c>
@@ -1952,10 +1897,9 @@
         <v>51</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="33">
+      <c r="F20" s="31">
         <v>2175</v>
       </c>
-      <c r="G20" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/test_ind_ISBA_svil.xlsx
@@ -445,7 +445,7 @@
     <t>logica accensione BR/eccezioni</t>
   </si>
   <si>
-    <t>OUTPUT (usando le singole BR)</t>
+    <t>OUTPUT_WEB_ISBA</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,12 +569,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,22 +698,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,10 +1050,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1150,10 +1144,10 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="32"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -1530,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,10 +1541,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="33" t="s">
         <v>102</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -1570,7 +1564,7 @@
       <c r="E2" s="21">
         <v>3</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1590,7 +1584,7 @@
       <c r="E3" s="21">
         <v>0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1610,10 +1604,10 @@
       <c r="E4" s="23">
         <v>10639</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>10639</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1630,10 +1624,10 @@
       <c r="E5" s="23">
         <v>11540</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>11540</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1650,7 +1644,7 @@
       <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1670,7 +1664,7 @@
       <c r="E7" s="23">
         <v>2610</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>2610</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1690,7 +1684,7 @@
       <c r="E8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1710,7 +1704,7 @@
       <c r="E9" s="21">
         <v>0</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1730,10 +1724,10 @@
       <c r="E10" s="23">
         <v>496</v>
       </c>
-      <c r="F10" s="32">
-        <v>398</v>
-      </c>
-      <c r="G10" s="33" t="s">
+      <c r="F10" s="30">
+        <v>496</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1750,10 +1744,10 @@
       <c r="E11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="31">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33" t="s">
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1770,7 +1764,9 @@
       <c r="E12" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="30"/>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
       <c r="G12" s="25" t="s">
         <v>97</v>
       </c>
@@ -1788,7 +1784,9 @@
       <c r="E13" s="28">
         <v>12262</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="30">
+        <v>12262</v>
+      </c>
       <c r="G13" s="25" t="s">
         <v>98</v>
       </c>
@@ -1806,7 +1804,9 @@
       <c r="E14" s="24">
         <v>15</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="29">
+        <v>15</v>
+      </c>
       <c r="G14" s="26" t="s">
         <v>99</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
         <v>51</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>163</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
         <v>51</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>12110</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>2175</v>
       </c>
     </row>
